--- a/TagData.xlsx
+++ b/TagData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software automation\GoogleTags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B949FA-955B-4702-A24B-850277FD7234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9E24A-A5C1-439C-923A-D39EDF0A9470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>Website</t>
   </si>
@@ -422,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06560FDF-296E-4715-8E14-A8233D6ED4CD}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F253CA0E-2567-4922-872C-D745BE839908}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,78 +445,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -525,6 +460,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06560FDF-296E-4715-8E14-A8233D6ED4CD}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5EF4A8-5609-4E1D-902A-F7BF991843B2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -627,7 +665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -779,7 +817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9AA77E-9038-432C-B51A-BF23202567B6}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/TagData.xlsx
+++ b/TagData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software automation\GoogleTags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9E24A-A5C1-439C-923A-D39EDF0A9470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F41FB-99C1-4BF0-8541-49FF7D5619DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -423,43 +423,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F253CA0E-2567-4922-872C-D745BE839908}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06560FDF-296E-4715-8E14-A8233D6ED4CD}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -562,7 +525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5EF4A8-5609-4E1D-902A-F7BF991843B2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -665,7 +628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -817,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9AA77E-9038-432C-B51A-BF23202567B6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -912,4 +875,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F253CA0E-2567-4922-872C-D745BE839908}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>